--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -512,10 +536,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -559,28 +583,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="3">
+      <c r="A15" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="3">
+      <c r="C15" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -605,28 +629,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -772,10 +796,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -819,28 +843,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -865,28 +889,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1090,10 +1114,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1137,28 +1161,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="A35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="3">
+      <c r="C35" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1183,28 +1207,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1437,10 +1461,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1484,28 +1508,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="3">
+      <c r="A47" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="3">
+      <c r="C47" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1530,28 +1554,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="3">
+      <c r="I49" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1726,10 +1750,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="3" t="s">
+      <c r="J55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1773,28 +1797,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="3">
+      <c r="A57" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="3">
+      <c r="C57" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1819,28 +1843,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="3">
+      <c r="C59" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="3">
+      <c r="D59" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="3">
+      <c r="I59" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1986,10 +2010,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2033,28 +2057,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2079,28 +2103,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2217,10 +2241,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2264,28 +2288,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="3">
+      <c r="C74" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2310,28 +2334,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2477,10 +2501,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="3" t="s">
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2524,28 +2548,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="3">
+      <c r="C83" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2570,28 +2594,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2737,10 +2761,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2784,28 +2808,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2830,28 +2854,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3021,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3068,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="3">
+      <c r="C101" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3114,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3228,10 +3252,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3275,28 +3299,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3321,28 +3345,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3459,10 +3483,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="3" t="s">
+      <c r="J115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3506,28 +3530,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="3">
+      <c r="C117" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3552,28 +3576,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3690,10 +3714,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="3" t="s">
+      <c r="J123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3737,28 +3761,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="A125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="3">
+      <c r="C125" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3783,28 +3807,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="3">
+      <c r="I127" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3892,10 +3916,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="3" t="s">
+      <c r="J130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3939,28 +3963,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="A132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="3">
+      <c r="C132" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3985,28 +4009,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="3">
+      <c r="I134" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4147,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="3" t="s">
+      <c r="J138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4194,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="3">
+      <c r="A140" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="3">
+      <c r="C140" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4240,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="3">
+      <c r="C142" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="3">
+      <c r="D142" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="3">
+      <c r="I142" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4325,10 +4349,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="3" t="s">
+      <c r="J145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4372,28 +4396,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="3">
+      <c r="A147" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="3">
+      <c r="C147" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4418,28 +4442,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="3">
+      <c r="C149" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="3">
+      <c r="D149" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="3">
+      <c r="I149" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4551,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4598,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4644,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4729,10 +4753,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="3" t="s">
+      <c r="J159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4776,28 +4800,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="3">
+      <c r="A161" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="3">
+      <c r="C161" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4822,28 +4846,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="3">
+      <c r="C163" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="3">
+      <c r="D163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="3">
+      <c r="I163" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4955,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="3" t="s">
+      <c r="J166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4978,28 +5002,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="3">
+      <c r="A168" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="3">
+      <c r="C168" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5024,28 +5048,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="3">
+      <c r="C170" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="3">
+      <c r="D170" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="3">
+      <c r="I170" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5133,10 +5157,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="3" t="s">
+      <c r="J173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5180,28 +5204,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="3">
+      <c r="A175" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="3">
+      <c r="C175" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5226,28 +5250,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="3">
+      <c r="I177" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5364,10 +5388,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="3" t="s">
+      <c r="J181" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5411,28 +5435,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="3">
+      <c r="A183" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="3">
+      <c r="C183" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5457,28 +5481,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="3">
+      <c r="C185" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="3">
+      <c r="D185" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="3">
+      <c r="I185" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5595,10 +5619,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5642,28 +5666,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5688,28 +5712,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5797,10 +5821,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5844,28 +5868,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5890,28 +5914,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5999,10 +6023,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="3" t="s">
+      <c r="J203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6046,28 +6070,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="3">
+      <c r="A205" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="3">
+      <c r="C205" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6092,28 +6116,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="3">
+      <c r="C207" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="3">
+      <c r="D207" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="3">
+      <c r="I207" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6259,10 +6283,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6306,28 +6330,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6352,28 +6376,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6461,10 +6485,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6508,28 +6532,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6554,28 +6578,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6721,10 +6745,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="3" t="s">
+      <c r="J228" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6768,28 +6792,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="3">
+      <c r="A230" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="3">
+      <c r="C230" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6814,28 +6838,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C232" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="3">
+      <c r="D232" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="3">
+      <c r="I232" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7097,10 +7121,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="3" t="s">
+      <c r="J241" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
